--- a/biology/Botanique/Teruo_Higa/Teruo_Higa.xlsx
+++ b/biology/Botanique/Teruo_Higa/Teruo_Higa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teruo Higa (japonais : 比嘉 照夫) est un biologiste et agronome japonais. Il est né le 28 décembre 1941 dans la préfecture d'Okinawa[1],[2].
-Il est surtout connu pour ses recherches sur les microorganismes efficaces qu'il a fait connaître dans un ouvrage publié en japonais : 地球を救う大変革 (Une révolution pour sauver la Terre) publié en 1994[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teruo Higa (japonais : 比嘉 照夫) est un biologiste et agronome japonais. Il est né le 28 décembre 1941 dans la préfecture d'Okinawa,.
+Il est surtout connu pour ses recherches sur les microorganismes efficaces qu'il a fait connaître dans un ouvrage publié en japonais : 地球を救う大変革 (Une révolution pour sauver la Terre) publié en 1994.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Fonctions actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teruo Higa est notamment directeur de l'Institut international de recherche sur la technologie EM (Université Meiō) et professeur émérite à l'Université des Ryūkyū[4].
-Il exerce également les fonctions de  président du Comité international de promotion de l'agriculture naturelle, président-fondateur de l'APNAN (Asia-Pacific Natural Farming Network, Réseau Asie-Pacifique d'agriculture naturelle)[5] et conseiller du Centre international de recherche et de développement pour l'agriculture naturelle[4].
-Il est par ailleurs conseiller technique de l'Association florale du Japon (ja) et préside le jury du « Concours national de développement des villes fleuries » organisé par le Ministère de l'Agriculture, des Forêts et de la Pêche et le Ministère du Territoire, des Infrastructures, des Transports et du Tourisme[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teruo Higa est notamment directeur de l'Institut international de recherche sur la technologie EM (Université Meiō) et professeur émérite à l'Université des Ryūkyū.
+Il exerce également les fonctions de  président du Comité international de promotion de l'agriculture naturelle, président-fondateur de l'APNAN (Asia-Pacific Natural Farming Network, Réseau Asie-Pacifique d'agriculture naturelle) et conseiller du Centre international de recherche et de développement pour l'agriculture naturelle.
+Il est par ailleurs conseiller technique de l'Association florale du Japon (ja) et préside le jury du « Concours national de développement des villes fleuries » organisé par le Ministère de l'Agriculture, des Forêts et de la Pêche et le Ministère du Territoire, des Infrastructures, des Transports et du Tourisme.
 </t>
         </is>
       </c>
